--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">La taille de la police des balises &lt;p&gt; est trop petite seulement 11px</t>
   </si>
   <si>
+    <t xml:space="preserve">Écrire le texte avec une plus grosse police</t>
+  </si>
+  <si>
     <t xml:space="preserve">Augmenter la taille de la police</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t xml:space="preserve">Dans le footer se trouve plusieurs liens de mauvaise qualité, le site sera considérer comme spam</t>
   </si>
   <si>
+    <t xml:space="preserve">Éviter de mettre des liens de mauvaise qualité ou qui n’ont pas de rapport avec le site </t>
+  </si>
+  <si>
     <t xml:space="preserve">Supprimer les liens</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
     <t xml:space="preserve">Le titre de la page index est un point et le titre de la page contact est page2</t>
   </si>
   <si>
+    <t xml:space="preserve">Nommer les pages avec le bon titre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Renommer les pages</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t xml:space="preserve">Plusieurs textes sont des images</t>
   </si>
   <si>
+    <t xml:space="preserve">Mettre des textes écrit au lieu d’une image représentent le texte</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transformer l’image en texte</t>
   </si>
   <si>
@@ -91,10 +103,58 @@
     <t xml:space="preserve">Des mots clés sont cachés dans le header et le footer de la page</t>
   </si>
   <si>
+    <t xml:space="preserve">Ne pas mettre de mot clés cachés dans le site </t>
+  </si>
+  <si>
     <t xml:space="preserve">Supprimer les mots cachés</t>
   </si>
   <si>
-    <t xml:space="preserve">Formulaire avec un mauvais </t>
+    <t xml:space="preserve">Formulaire reconnu comme mail au lieu d’un texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un bloc du formulaire est reconnu comme mail alors que c’est un texte qui est demandé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre le bon type de input en fonction de se qui est demander dans le formulaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer le input en supprimant le type=email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couleur de certaines police</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contraste du texte et de certain icônes avec le fond n’est pas suffisant, il y a donc une mauvaise lisibilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les éléments doivent être suffisamment contrastés par rapport à l'arrière-plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choisir une couleur plus lisible en fonction du fond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouton de retour en haut mal placé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le bouton qui permet de retourner en haut de la page est situé dans la page 2 alors qu’il n’y en a pas besoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser des interactions en ayant de la cohérences avec le site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer le bouton de la page 2 et le mettre dans la page 1 où il sera utile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description manquante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aucune description est donné dans la balise description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre une description pour le site pour un meilleur placement dans les résultats de recherches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rédiger la description de l’entreprise</t>
   </si>
 </sst>
 </file>
@@ -306,16 +366,16 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.32421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="81.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="92.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="79.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="57.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.57"/>
   </cols>
@@ -376,36 +436,45 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -413,27 +482,33 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -441,18 +516,68 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="4"/>
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="4"/>
+      <c r="A10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="4"/>
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E12" s="4"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t xml:space="preserve">Rédiger la description de l’entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messages du formulaire en anglais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les messages d’erreur, de validation et recommandation sont en anglais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre le texte dans la bonne langue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traduire le texte</t>
   </si>
 </sst>
 </file>
@@ -366,7 +378,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.32421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -580,7 +592,21 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="4"/>
+      <c r="A12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E13" s="4"/>
